--- a/tab/pairwise_permutation_bio.xlsx
+++ b/tab/pairwise_permutation_bio.xlsx
@@ -409,19 +409,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1745475157589858</v>
+        <v>0.312812461138648</v>
       </c>
       <c r="D2">
-        <v>0.08986013517755086</v>
+        <v>0.1500232860277201</v>
       </c>
       <c r="E2">
-        <v>0.9873222638707385</v>
+        <v>1.765028189144164</v>
       </c>
       <c r="F2">
-        <v>0.433</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
-        <v>2.598</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -434,10 +434,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1.767887974840986</v>
+        <v>1.772280256273562</v>
       </c>
       <c r="D3">
-        <v>0.9101398648224491</v>
+        <v>0.84997671397228</v>
       </c>
     </row>
     <row r="4">
@@ -450,7 +450,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1.942435490599972</v>
+        <v>2.08509271741221</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -516,19 +516,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.4610830807269737</v>
+        <v>0.7955403593685131</v>
       </c>
       <c r="D2">
-        <v>0.1260825944025009</v>
+        <v>0.1976894172354029</v>
       </c>
       <c r="E2">
-        <v>2.885457907004336</v>
+        <v>4.928002234601115</v>
       </c>
       <c r="F2">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="G2">
-        <v>0.03</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="3">
@@ -541,10 +541,10 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>3.19590924967377</v>
+        <v>3.228652591846506</v>
       </c>
       <c r="D3">
-        <v>0.8739174055974991</v>
+        <v>0.8023105827645971</v>
       </c>
     </row>
     <row r="4">
@@ -557,7 +557,7 @@
         <v>21</v>
       </c>
       <c r="C4">
-        <v>3.656992330400744</v>
+        <v>4.024192951215019</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -623,13 +623,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.6801864836760231</v>
+        <v>0.985044318871804</v>
       </c>
       <c r="D2">
-        <v>0.1334070194991635</v>
+        <v>0.176103667825071</v>
       </c>
       <c r="E2">
-        <v>4.002550891854246</v>
+        <v>5.557368305506308</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -648,10 +648,10 @@
         <v>26</v>
       </c>
       <c r="C3">
-        <v>4.418394432302598</v>
+        <v>4.608503680652417</v>
       </c>
       <c r="D3">
-        <v>0.8665929805008362</v>
+        <v>0.8238963321749288</v>
       </c>
     </row>
     <row r="4">
@@ -664,7 +664,7 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>5.098580915978623</v>
+        <v>5.593547999524223</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -730,19 +730,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2107903439899626</v>
+        <v>0.2364862981115915</v>
       </c>
       <c r="D2">
-        <v>0.06502693773351831</v>
+        <v>0.07250024029696778</v>
       </c>
       <c r="E2">
-        <v>1.39099061476457</v>
+        <v>1.5633479046977</v>
       </c>
       <c r="F2">
-        <v>0.193</v>
+        <v>0.137</v>
       </c>
       <c r="G2">
-        <v>1.158</v>
+        <v>0.8220000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>3.030794625823404</v>
+        <v>3.025382864568718</v>
       </c>
       <c r="D3">
-        <v>0.9349730622664817</v>
+        <v>0.9274997597030322</v>
       </c>
     </row>
     <row r="4">
@@ -771,7 +771,7 @@
         <v>21</v>
       </c>
       <c r="C4">
-        <v>3.241584969813367</v>
+        <v>3.261869162680309</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -837,19 +837,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2323222773899625</v>
+        <v>0.2507832413067982</v>
       </c>
       <c r="D2">
-        <v>0.0517928859814017</v>
+        <v>0.05386218109187142</v>
       </c>
       <c r="E2">
-        <v>1.420169724111595</v>
+        <v>1.480140292885428</v>
       </c>
       <c r="F2">
-        <v>0.153</v>
+        <v>0.124</v>
       </c>
       <c r="G2">
-        <v>0.9179999999999999</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="3">
@@ -862,10 +862,10 @@
         <v>26</v>
       </c>
       <c r="C3">
-        <v>4.253279808452232</v>
+        <v>4.405233953374629</v>
       </c>
       <c r="D3">
-        <v>0.9482071140185981</v>
+        <v>0.9461378189081284</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>4.485602085842196</v>
+        <v>4.656017194681428</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -944,19 +944,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.3456261636598013</v>
+        <v>0.3849069665924417</v>
       </c>
       <c r="D2">
-        <v>0.05734699449624298</v>
+        <v>0.06161949088174411</v>
       </c>
       <c r="E2">
-        <v>2.190086691296842</v>
+        <v>2.363968187944571</v>
       </c>
       <c r="F2">
-        <v>0.018</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
-        <v>0.108</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -969,10 +969,10 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>5.681301083285017</v>
+        <v>5.861606288947574</v>
       </c>
       <c r="D3">
-        <v>0.942653005503757</v>
+        <v>0.938380509118256</v>
       </c>
     </row>
     <row r="4">
@@ -985,7 +985,7 @@
         <v>37</v>
       </c>
       <c r="C4">
-        <v>6.026927246944818</v>
+        <v>6.246513255540014</v>
       </c>
       <c r="D4">
         <v>1</v>
